--- a/现金流量表/688598.xlsx
+++ b/现金流量表/688598.xlsx
@@ -744,57 +744,55 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>44467642.2</v>
+        <v>26941818.92</v>
       </c>
       <c r="P2" t="n">
-        <v>122.2918776159</v>
+        <v>883.2047933684</v>
       </c>
       <c r="Q2" t="n">
-        <v>172447959.65</v>
+        <v>136864952.75</v>
       </c>
       <c r="R2" t="n">
-        <v>474.254620512</v>
+        <v>4486.6971555215</v>
       </c>
       <c r="S2" t="n">
-        <v>47160015.48</v>
+        <v>46256312.16</v>
       </c>
       <c r="T2" t="n">
-        <v>129.6962590349</v>
+        <v>1516.3711382875</v>
       </c>
       <c r="U2" t="n">
-        <v>-849484509.8099999</v>
+        <v>731181.4</v>
       </c>
       <c r="V2" t="n">
-        <v>-2336.1943779934</v>
+        <v>23.9695366976</v>
       </c>
       <c r="W2" t="n">
-        <v>4491325.39</v>
+        <v>1144324.17</v>
       </c>
       <c r="X2" t="n">
-        <v>12.351736853</v>
+        <v>37.5131536261</v>
       </c>
       <c r="Y2" t="n">
-        <v>127400835.2</v>
+        <v>2813142.77</v>
       </c>
       <c r="Z2" t="n">
-        <v>350.3690903233</v>
+        <v>92.2202463862</v>
       </c>
       <c r="AA2" t="n">
-        <v>841468742.47</v>
+        <v>-24606472.93</v>
       </c>
       <c r="AB2" t="n">
-        <v>2314.1499611986</v>
+        <v>-806.6476470722999</v>
       </c>
       <c r="AC2" t="n">
-        <v>36361893.42</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1092.0130062434</v>
-      </c>
+        <v>3050461.13</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/688598.xlsx
+++ b/现金流量表/688598.xlsx
@@ -744,55 +744,57 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>26941818.92</v>
+        <v>44467642.2</v>
       </c>
       <c r="P2" t="n">
-        <v>883.2047933684</v>
+        <v>122.2918776159</v>
       </c>
       <c r="Q2" t="n">
-        <v>136864952.75</v>
+        <v>172447959.65</v>
       </c>
       <c r="R2" t="n">
-        <v>4486.6971555215</v>
+        <v>474.254620512</v>
       </c>
       <c r="S2" t="n">
-        <v>46256312.16</v>
+        <v>47160015.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1516.3711382875</v>
+        <v>129.6962590349</v>
       </c>
       <c r="U2" t="n">
-        <v>731181.4</v>
+        <v>-849484509.8099999</v>
       </c>
       <c r="V2" t="n">
-        <v>23.9695366976</v>
+        <v>-2336.1943779934</v>
       </c>
       <c r="W2" t="n">
-        <v>1144324.17</v>
+        <v>4491325.39</v>
       </c>
       <c r="X2" t="n">
-        <v>37.5131536261</v>
+        <v>12.351736853</v>
       </c>
       <c r="Y2" t="n">
-        <v>2813142.77</v>
+        <v>127400835.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>92.2202463862</v>
+        <v>350.3690903233</v>
       </c>
       <c r="AA2" t="n">
-        <v>-24606472.93</v>
+        <v>841468742.47</v>
       </c>
       <c r="AB2" t="n">
-        <v>-806.6476470722999</v>
+        <v>2314.1499611986</v>
       </c>
       <c r="AC2" t="n">
-        <v>3050461.13</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>36361893.42</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1092.0130062434</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
